--- a/docs/Language Waves/wave3.xlsx
+++ b/docs/Language Waves/wave3.xlsx
@@ -9,23 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7755" firstSheet="3" activeTab="12"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7755" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
-    <sheet name="zh_intl" sheetId="13" r:id="rId1"/>
-    <sheet name="zh_hk" sheetId="9" r:id="rId2"/>
-    <sheet name="pt_intl" sheetId="14" r:id="rId3"/>
-    <sheet name="pt_pt" sheetId="15" r:id="rId4"/>
-    <sheet name="cs_cz" sheetId="6" r:id="rId5"/>
-    <sheet name="fi_fi" sheetId="7" r:id="rId6"/>
-    <sheet name="el_gr" sheetId="8" r:id="rId7"/>
-    <sheet name="en_hk" sheetId="10" r:id="rId8"/>
-    <sheet name="hu_hu" sheetId="11" r:id="rId9"/>
-    <sheet name="bg-bg" sheetId="16" r:id="rId10"/>
-    <sheet name="fr_ca" sheetId="17" r:id="rId11"/>
-    <sheet name="en_ca" sheetId="18" r:id="rId12"/>
-    <sheet name="ro_ro" sheetId="12" r:id="rId13"/>
-    <sheet name="uk_ua" sheetId="19" r:id="rId14"/>
+    <sheet name="az_az" sheetId="20" r:id="rId1"/>
+    <sheet name="hr_hr" sheetId="22" r:id="rId2"/>
+    <sheet name="et_ee" sheetId="23" r:id="rId3"/>
+    <sheet name="lv_lv" sheetId="24" r:id="rId4"/>
+    <sheet name="mk_mk" sheetId="25" r:id="rId5"/>
+    <sheet name="sr_rs" sheetId="26" r:id="rId6"/>
+    <sheet name="sk_sk" sheetId="27" r:id="rId7"/>
+    <sheet name="sl_si" sheetId="28" r:id="rId8"/>
+    <sheet name="lt_lt" sheetId="29" r:id="rId9"/>
+    <sheet name="zh_intl" sheetId="13" r:id="rId10"/>
+    <sheet name="zh_hk" sheetId="9" r:id="rId11"/>
+    <sheet name="pt_intl" sheetId="14" r:id="rId12"/>
+    <sheet name="pt_pt" sheetId="15" r:id="rId13"/>
+    <sheet name="cs_cz" sheetId="6" r:id="rId14"/>
+    <sheet name="fi_fi" sheetId="7" r:id="rId15"/>
+    <sheet name="el_gr" sheetId="8" r:id="rId16"/>
+    <sheet name="en_hk" sheetId="10" r:id="rId17"/>
+    <sheet name="hu_hu" sheetId="11" r:id="rId18"/>
+    <sheet name="bg-bg" sheetId="16" r:id="rId19"/>
+    <sheet name="fr_ca" sheetId="17" r:id="rId20"/>
+    <sheet name="en_ca" sheetId="18" r:id="rId21"/>
+    <sheet name="ro_ro" sheetId="12" r:id="rId22"/>
+    <sheet name="ru_intl" sheetId="30" r:id="rId23"/>
+    <sheet name="ru_ru" sheetId="31" r:id="rId24"/>
+    <sheet name="ru_ua" sheetId="32" r:id="rId25"/>
+    <sheet name="uk_ua" sheetId="19" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="468">
   <si>
     <t>http://www.cisco.com/web/BG/ordering/index.html</t>
   </si>
@@ -1210,6 +1222,237 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/CA/solutions/trends/cloud/case-studies_fr.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/AZ/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/AZ/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/AZ/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/AZ/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/AZ/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HR/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HR/techsupport/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HR/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HR/learning_events/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HR/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EE/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EE/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EE/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EE/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EE/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LV/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LV/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LV/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LV/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LV/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/MK/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/MK/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/MK/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/MK/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/MK/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/YU/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/YU/techsupport/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/YU/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/YU/learning_events/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/YU/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SK/products/products_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SK/techsupport/techsupport_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SK/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SK/learn_events/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SK/about/about_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SI/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SI/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SI/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SI/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SI/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LT/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LT/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LT/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LT/training/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LT/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/partners/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/solutions/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/solutions/strategy.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/solutions/borderless/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/solutions/borderless/portfolio.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/solutions/collaboration/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/tc/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/cisco/web/RU/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/solutions/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/midsize/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/midsize/products_solutions.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/training/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/solutions/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/midsize/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/midsize/products_solutions.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HU/solutions/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/GR/solutions/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FI/solutions/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CZ/solutions/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RO/solutions/index.html</t>
   </si>
 </sst>
 </file>
@@ -1751,15 +1994,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
@@ -1803,10 +2126,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>278</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1814,13 +2137,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -1828,10 +2148,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1842,13 +2162,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1859,13 +2176,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1876,13 +2193,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1893,13 +2210,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1910,13 +2227,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1927,13 +2244,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1944,44 +2261,44 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1992,13 +2309,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -2009,13 +2326,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -2026,13 +2343,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -2043,13 +2360,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -2057,10 +2377,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
         <v>91</v>
@@ -2071,13 +2391,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -2085,13 +2405,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
@@ -2102,13 +2419,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
@@ -2119,13 +2436,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -2136,13 +2453,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
         <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -2153,13 +2470,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -2170,13 +2487,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s">
         <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2187,13 +2504,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -2204,13 +2521,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
         <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -2221,13 +2538,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -2238,13 +2555,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
         <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -2255,13 +2572,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -2272,13 +2589,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -2289,13 +2606,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s">
         <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -2306,13 +2623,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -2323,13 +2640,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s">
         <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -2340,13 +2657,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -2357,13 +2674,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s">
         <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -2374,13 +2691,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -2391,13 +2708,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s">
         <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -2408,13 +2725,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -2425,13 +2742,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s">
         <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -2442,13 +2759,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -2459,13 +2776,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s">
         <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -2476,13 +2793,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -2493,18 +2810,35 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B46" t="s">
         <v>169</v>
       </c>
       <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
         <v>168</v>
       </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2516,12 +2850,2338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,11 +5335,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4054,12 +6796,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5267,7 +8009,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="16" t="s">
         <v>242</v>
       </c>
       <c r="B74" t="s">
@@ -5372,17 +8114,18 @@
   <hyperlinks>
     <hyperlink ref="A58" r:id="rId1"/>
     <hyperlink ref="A78" r:id="rId2"/>
+    <hyperlink ref="A74" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5514,6 +8257,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1"/>
@@ -5528,11 +8285,398 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5641,802 +8785,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B40" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B41" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B46" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -6444,16 +8823,16 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -6461,10 +8840,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -6472,102 +8851,51 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -6575,16 +8903,16 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -6592,10 +8920,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -6603,63 +8931,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6670,25 +8947,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>411</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6696,7 +8975,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -6704,16 +8983,16 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -6721,10 +9000,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>414</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -6732,49 +9011,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>415</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6785,25 +9027,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>416</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6811,7 +9055,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -6819,16 +9063,16 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -6836,10 +9080,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -6847,49 +9091,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6900,24 +9107,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>421</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6925,7 +9135,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -6933,16 +9143,16 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -6950,10 +9160,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>271</v>
+        <v>424</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -6961,49 +9171,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7014,31 +9187,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
+        <v>426</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -7046,33 +9216,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -7080,567 +9241,23 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>324</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B37" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7651,32 +9268,35 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -7684,16 +9304,16 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>360</v>
+        <v>433</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -7701,10 +9321,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>361</v>
+        <v>434</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -7712,49 +9332,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
         <v>2</v>
       </c>
     </row>

--- a/docs/Language Waves/wave3.xlsx
+++ b/docs/Language Waves/wave3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration feb 17\OVWMigration\docs\Language Waves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ovwfeb19\OVWMigration\docs\Language Waves\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7755" firstSheet="15" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7755" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="az_az" sheetId="20" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="el_gr" sheetId="8" r:id="rId16"/>
     <sheet name="en_hk" sheetId="10" r:id="rId17"/>
     <sheet name="hu_hu" sheetId="11" r:id="rId18"/>
-    <sheet name="bg-bg" sheetId="16" r:id="rId19"/>
+    <sheet name="bg_bg" sheetId="16" r:id="rId19"/>
     <sheet name="fr_ca" sheetId="17" r:id="rId20"/>
     <sheet name="en_ca" sheetId="18" r:id="rId21"/>
     <sheet name="ro_ro" sheetId="12" r:id="rId22"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="467">
   <si>
     <t>http://www.cisco.com/web/BG/ordering/index.html</t>
   </si>
@@ -423,9 +423,6 @@
     <t>http://www.cisco.com/web/CA/products/wireless_comparison_fr.html</t>
   </si>
   <si>
-    <t>buyersguide-var2</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CA/products/security/index_fr.html</t>
   </si>
   <si>
@@ -795,9 +792,6 @@
     <t>http://www.cisco.com/web/ordering/root/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/cisco/web/support/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/learning/index.html</t>
   </si>
   <si>
@@ -1149,9 +1143,6 @@
     <t>http://www.cisco.com/web/RO/ordering/ordering_home.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/RO/techsupport/techsupport_home.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/RO/learn_events/index.html</t>
   </si>
   <si>
@@ -1453,6 +1444,12 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/RO/solutions/index.html</t>
+  </si>
+  <si>
+    <t>index-buyersguidevar3</t>
+  </si>
+  <si>
+    <t>buyers-guide-var2</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2005,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -2022,7 +2019,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2036,7 +2033,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2047,7 +2044,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2090,7 +2087,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2101,7 +2098,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2115,7 +2112,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2137,7 +2134,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -2148,7 +2145,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2162,7 +2159,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2176,7 +2173,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2193,7 +2190,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -2210,7 +2207,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2227,7 +2224,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2244,7 +2241,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -2261,7 +2258,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -2278,7 +2275,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -2292,7 +2289,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2309,7 +2306,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2326,7 +2323,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -2343,7 +2340,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -2360,7 +2357,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -2377,7 +2374,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
         <v>90</v>
@@ -2391,7 +2388,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
@@ -2405,7 +2402,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -2419,7 +2416,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
@@ -2436,7 +2433,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B24" t="s">
         <v>113</v>
@@ -2453,7 +2450,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s">
         <v>118</v>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B26" t="s">
         <v>118</v>
@@ -2487,7 +2484,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s">
         <v>121</v>
@@ -2504,7 +2501,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B28" t="s">
         <v>121</v>
@@ -2521,13 +2518,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
         <v>126</v>
-      </c>
-      <c r="C29" t="s">
-        <v>127</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -2538,13 +2535,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -2555,10 +2552,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
@@ -2572,10 +2569,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
         <v>116</v>
@@ -2589,13 +2586,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
         <v>142</v>
-      </c>
-      <c r="C33" t="s">
-        <v>143</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -2606,10 +2603,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
         <v>114</v>
@@ -2623,10 +2620,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
         <v>116</v>
@@ -2640,13 +2637,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
         <v>159</v>
-      </c>
-      <c r="C36" t="s">
-        <v>160</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -2657,13 +2654,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -2674,13 +2671,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
         <v>162</v>
-      </c>
-      <c r="C38" t="s">
-        <v>163</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -2691,13 +2688,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -2708,13 +2705,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -2725,13 +2722,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -2742,13 +2739,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -2759,13 +2756,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -2776,13 +2773,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
         <v>166</v>
-      </c>
-      <c r="C44" t="s">
-        <v>167</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -2793,13 +2790,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -2810,13 +2807,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
@@ -2827,13 +2824,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -2855,7 +2852,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2880,7 +2877,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2894,7 +2891,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2905,7 +2902,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2916,7 +2913,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -2927,7 +2924,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2941,7 +2938,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2955,7 +2952,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2972,7 +2969,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -2989,7 +2986,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -3006,7 +3003,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -3023,7 +3020,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -3040,7 +3037,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -3057,7 +3054,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -3071,7 +3068,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3088,7 +3085,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -3105,13 +3102,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -3122,7 +3119,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -3139,7 +3136,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -3156,7 +3153,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
         <v>90</v>
@@ -3170,7 +3167,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
@@ -3184,7 +3181,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -3198,7 +3195,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
@@ -3215,7 +3212,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B24" t="s">
         <v>113</v>
@@ -3232,7 +3229,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s">
         <v>118</v>
@@ -3249,7 +3246,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B26" t="s">
         <v>118</v>
@@ -3266,7 +3263,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s">
         <v>121</v>
@@ -3283,7 +3280,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B28" t="s">
         <v>121</v>
@@ -3300,13 +3297,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
         <v>126</v>
-      </c>
-      <c r="C29" t="s">
-        <v>127</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -3317,13 +3314,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -3334,10 +3331,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
@@ -3351,10 +3348,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
         <v>116</v>
@@ -3368,13 +3365,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
         <v>142</v>
-      </c>
-      <c r="C33" t="s">
-        <v>143</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -3385,10 +3382,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
         <v>114</v>
@@ -3402,10 +3399,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
         <v>116</v>
@@ -3419,13 +3416,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
         <v>159</v>
-      </c>
-      <c r="C36" t="s">
-        <v>160</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -3436,13 +3433,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -3453,13 +3450,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
         <v>162</v>
-      </c>
-      <c r="C38" t="s">
-        <v>163</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -3470,13 +3467,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -3487,13 +3484,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -3504,13 +3501,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -3521,13 +3518,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -3538,13 +3535,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -3555,13 +3552,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
         <v>166</v>
-      </c>
-      <c r="C44" t="s">
-        <v>167</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -3572,13 +3569,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -3589,13 +3586,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
@@ -3606,13 +3603,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -3645,7 +3642,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3656,7 +3653,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3670,7 +3667,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -3681,7 +3678,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3692,7 +3689,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -3706,7 +3703,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3723,7 +3720,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3740,7 +3737,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3776,7 +3773,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3787,7 +3784,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3801,7 +3798,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -3812,7 +3809,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3823,7 +3820,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -3837,7 +3834,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3854,7 +3851,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3871,7 +3868,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3905,7 +3902,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3916,7 +3913,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3930,7 +3927,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -3941,7 +3938,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3952,7 +3949,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3969,7 +3966,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3986,7 +3983,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4000,7 +3997,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -4034,7 +4031,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4045,7 +4042,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4059,7 +4056,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4070,7 +4067,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -4081,7 +4078,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4098,7 +4095,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4115,7 +4112,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4129,7 +4126,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -4162,7 +4159,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4173,7 +4170,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4187,7 +4184,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4198,7 +4195,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -4209,7 +4206,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4226,7 +4223,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4243,7 +4240,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4257,7 +4254,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -4278,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4291,7 +4288,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4302,7 +4299,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4316,7 +4313,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4327,7 +4324,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -4338,7 +4335,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -4349,7 +4346,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -4363,7 +4360,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -4377,7 +4374,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -4394,7 +4391,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -4411,7 +4408,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -4428,7 +4425,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -4445,7 +4442,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -4462,7 +4459,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -4479,7 +4476,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -4493,7 +4490,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4510,7 +4507,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -4527,13 +4524,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -4544,7 +4541,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -4561,7 +4558,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -4578,7 +4575,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C20" t="s">
         <v>90</v>
@@ -4592,7 +4589,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
@@ -4606,7 +4603,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -4620,7 +4617,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
@@ -4637,7 +4634,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B24" t="s">
         <v>113</v>
@@ -4654,7 +4651,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B25" t="s">
         <v>118</v>
@@ -4671,7 +4668,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B26" t="s">
         <v>118</v>
@@ -4688,7 +4685,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B27" t="s">
         <v>121</v>
@@ -4705,7 +4702,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B28" t="s">
         <v>121</v>
@@ -4722,13 +4719,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
         <v>126</v>
-      </c>
-      <c r="C29" t="s">
-        <v>127</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -4739,13 +4736,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -4756,10 +4753,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
@@ -4773,10 +4770,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
         <v>116</v>
@@ -4790,13 +4787,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
         <v>142</v>
-      </c>
-      <c r="C33" t="s">
-        <v>143</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -4807,10 +4804,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
         <v>114</v>
@@ -4824,10 +4821,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
         <v>116</v>
@@ -4841,13 +4838,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
         <v>159</v>
-      </c>
-      <c r="C36" t="s">
-        <v>160</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -4858,13 +4855,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -4875,13 +4872,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
         <v>162</v>
-      </c>
-      <c r="C38" t="s">
-        <v>163</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -4892,13 +4889,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -4909,13 +4906,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -4926,13 +4923,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -4943,13 +4940,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -4960,13 +4957,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -4977,13 +4974,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
         <v>166</v>
-      </c>
-      <c r="C44" t="s">
-        <v>167</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -4994,13 +4991,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -5011,13 +5008,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
@@ -5028,13 +5025,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -5064,7 +5061,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5075,7 +5072,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -5089,7 +5086,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -5100,7 +5097,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -5111,7 +5108,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -5128,7 +5125,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5145,7 +5142,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -5159,7 +5156,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -5351,7 +5348,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -5365,7 +5362,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -5379,7 +5376,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -5390,7 +5387,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -5401,7 +5398,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -5419,8 +5416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5930,7 +5927,7 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -6313,7 +6310,7 @@
         <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -6324,13 +6321,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
         <v>125</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>127</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -6341,13 +6338,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
         <v>128</v>
-      </c>
-      <c r="B57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" t="s">
-        <v>129</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -6358,13 +6355,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
         <v>130</v>
-      </c>
-      <c r="B58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
@@ -6375,13 +6372,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
         <v>132</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" t="s">
-        <v>133</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -6392,13 +6389,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
         <v>134</v>
-      </c>
-      <c r="B60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>135</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -6409,13 +6406,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
         <v>136</v>
-      </c>
-      <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" t="s">
-        <v>137</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -6426,10 +6423,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" t="s">
         <v>138</v>
-      </c>
-      <c r="B62" t="s">
-        <v>139</v>
       </c>
       <c r="C62" t="s">
         <v>114</v>
@@ -6443,10 +6440,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
         <v>116</v>
@@ -6460,13 +6457,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
         <v>141</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>142</v>
-      </c>
-      <c r="C64" t="s">
-        <v>143</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
@@ -6477,10 +6474,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
         <v>144</v>
-      </c>
-      <c r="B65" t="s">
-        <v>145</v>
       </c>
       <c r="C65" t="s">
         <v>114</v>
@@ -6494,10 +6491,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
         <v>116</v>
@@ -6511,13 +6508,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B67" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" t="s">
         <v>159</v>
-      </c>
-      <c r="C67" t="s">
-        <v>160</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -6528,13 +6525,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
@@ -6545,13 +6542,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" t="s">
         <v>162</v>
-      </c>
-      <c r="C69" t="s">
-        <v>163</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -6562,13 +6559,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
@@ -6579,13 +6576,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -6596,13 +6593,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
@@ -6613,13 +6610,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -6630,13 +6627,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
@@ -6647,13 +6644,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
         <v>166</v>
-      </c>
-      <c r="C75" t="s">
-        <v>167</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -6664,13 +6661,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -6681,13 +6678,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
@@ -6698,13 +6695,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
@@ -6715,13 +6712,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>12</v>
@@ -6800,8 +6797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6814,7 +6811,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6825,7 +6822,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -6839,7 +6836,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -6850,7 +6847,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -6861,7 +6858,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -6872,7 +6869,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -6886,7 +6883,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -6900,7 +6897,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6934,7 +6931,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -6951,7 +6948,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -6968,7 +6965,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -6985,7 +6982,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -7002,7 +6999,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
@@ -7019,7 +7016,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -7036,7 +7033,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -7053,13 +7050,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -7070,7 +7067,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -7087,7 +7084,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -7104,7 +7101,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -7121,7 +7118,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -7138,7 +7135,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -7155,13 +7152,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -7172,7 +7169,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -7189,7 +7186,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -7206,7 +7203,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -7223,7 +7220,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -7240,7 +7237,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -7257,7 +7254,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
@@ -7271,7 +7268,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -7288,7 +7285,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -7305,13 +7302,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -7322,7 +7319,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
@@ -7339,7 +7336,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" t="s">
         <v>79</v>
@@ -7356,7 +7353,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
@@ -7373,7 +7370,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
@@ -7390,10 +7387,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -7404,7 +7401,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
         <v>93</v>
@@ -7418,7 +7415,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
         <v>95</v>
@@ -7435,7 +7432,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
@@ -7452,7 +7449,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
@@ -7469,7 +7466,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
         <v>102</v>
@@ -7486,7 +7483,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43" t="s">
         <v>104</v>
@@ -7503,7 +7500,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
         <v>104</v>
@@ -7520,7 +7517,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
         <v>104</v>
@@ -7537,7 +7534,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s">
         <v>104</v>
@@ -7554,7 +7551,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -7568,7 +7565,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
         <v>113</v>
@@ -7585,7 +7582,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
         <v>113</v>
@@ -7602,7 +7599,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
         <v>118</v>
@@ -7619,7 +7616,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
         <v>118</v>
@@ -7636,7 +7633,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
         <v>121</v>
@@ -7653,7 +7650,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s">
         <v>121</v>
@@ -7670,13 +7667,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s">
         <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -7687,13 +7684,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
         <v>126</v>
-      </c>
-      <c r="C55" t="s">
-        <v>127</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -7704,13 +7701,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -7721,13 +7718,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -7738,13 +7735,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
@@ -7755,13 +7752,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -7772,13 +7769,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -7789,10 +7786,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
         <v>114</v>
@@ -7806,10 +7803,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
         <v>116</v>
@@ -7823,13 +7820,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="s">
         <v>142</v>
-      </c>
-      <c r="C63" t="s">
-        <v>143</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -7840,10 +7837,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
         <v>114</v>
@@ -7857,10 +7854,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
         <v>116</v>
@@ -7874,13 +7871,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
         <v>159</v>
-      </c>
-      <c r="C66" t="s">
-        <v>160</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -7891,13 +7888,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -7908,13 +7905,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" t="s">
         <v>162</v>
-      </c>
-      <c r="C68" t="s">
-        <v>163</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
@@ -7925,13 +7922,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -7942,13 +7939,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
@@ -7959,13 +7956,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -7976,13 +7973,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
@@ -7993,13 +7990,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -8010,13 +8007,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" t="s">
         <v>166</v>
-      </c>
-      <c r="C74" t="s">
-        <v>167</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
@@ -8027,13 +8024,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -8044,13 +8041,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -8061,13 +8058,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
@@ -8078,7 +8075,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>79</v>
@@ -8095,13 +8092,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>12</v>
@@ -8122,17 +8119,17 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.28515625" customWidth="1"/>
     <col min="2" max="2" width="64.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
@@ -8140,10 +8137,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -8154,64 +8151,64 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -8222,64 +8219,43 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>371</v>
+        <v>464</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A1" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8300,7 +8276,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8311,7 +8287,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8325,7 +8301,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8336,7 +8312,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8347,7 +8323,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8361,7 +8337,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8378,7 +8354,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -8395,7 +8371,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -8428,7 +8404,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8439,7 +8415,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8453,7 +8429,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8464,7 +8440,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8475,7 +8451,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8489,7 +8465,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8506,7 +8482,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -8523,7 +8499,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -8558,7 +8534,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8569,7 +8545,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8583,7 +8559,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8594,7 +8570,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8605,7 +8581,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8619,7 +8595,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8636,7 +8612,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -8653,7 +8629,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -8687,7 +8663,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8698,7 +8674,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8712,7 +8688,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8723,7 +8699,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8734,7 +8710,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -8751,7 +8727,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8768,7 +8744,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -8801,7 +8777,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -8815,7 +8791,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8829,7 +8805,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -8840,7 +8816,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -8851,7 +8827,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -8869,7 +8845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8881,7 +8857,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -8895,7 +8871,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8909,7 +8885,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -8920,7 +8896,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -8931,7 +8907,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -8961,7 +8937,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -8975,7 +8951,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8989,7 +8965,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9000,7 +8976,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9011,7 +8987,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9029,7 +9005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -9041,7 +9017,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9055,7 +9031,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9069,7 +9045,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9080,7 +9056,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9091,7 +9067,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9109,7 +9085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -9121,7 +9097,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9135,7 +9111,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9149,7 +9125,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9160,7 +9136,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9171,7 +9147,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9202,7 +9178,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9216,7 +9192,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9230,7 +9206,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9241,7 +9217,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9252,7 +9228,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9282,7 +9258,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9296,7 +9272,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9310,7 +9286,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9321,7 +9297,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9332,7 +9308,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>

--- a/docs/Language Waves/wave3.xlsx
+++ b/docs/Language Waves/wave3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ovwfeb19\OVWMigration\docs\Language Waves\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7755" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="7752" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="az_az" sheetId="20" r:id="rId1"/>
@@ -39,7 +34,7 @@
     <sheet name="ru_ua" sheetId="32" r:id="rId25"/>
     <sheet name="uk_ua" sheetId="19" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -315,9 +310,6 @@
     <t>http://www.cisco.com/web/CA/solutions/sp/solutions-listing_fr.html</t>
   </si>
   <si>
-    <t>solution-listing-var9</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CA/services/index_fr.html</t>
   </si>
   <si>
@@ -1450,6 +1442,9 @@
   </si>
   <si>
     <t>buyers-guide-var2</t>
+  </si>
+  <si>
+    <t>solutions-listing-var9</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1978,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1997,15 +1992,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -2019,7 +2014,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2033,7 +2028,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2044,7 +2039,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2055,7 +2050,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2077,17 +2072,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2098,7 +2093,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2112,7 +2107,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2123,7 +2118,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2134,7 +2129,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -2145,7 +2140,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2159,7 +2154,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2173,7 +2168,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2190,7 +2185,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -2207,7 +2202,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2224,7 +2219,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2241,7 +2236,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -2258,7 +2253,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -2275,7 +2270,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -2289,7 +2284,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2306,7 +2301,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2323,7 +2318,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -2340,7 +2335,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -2357,7 +2352,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -2374,13 +2369,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
         <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -2388,13 +2383,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -2402,7 +2397,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -2416,13 +2411,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
         <v>113</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
@@ -2433,13 +2428,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -2450,13 +2445,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -2467,13 +2462,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -2484,13 +2479,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2501,13 +2496,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -2518,13 +2513,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
         <v>125</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -2535,13 +2530,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -2552,13 +2547,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -2569,13 +2564,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -2586,13 +2581,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
         <v>141</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -2603,13 +2598,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -2620,13 +2615,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -2637,13 +2632,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
         <v>158</v>
-      </c>
-      <c r="C36" t="s">
-        <v>159</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -2654,13 +2649,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -2671,13 +2666,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
         <v>161</v>
-      </c>
-      <c r="C38" t="s">
-        <v>162</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -2688,13 +2683,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -2705,13 +2700,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -2722,13 +2717,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -2739,13 +2734,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -2756,13 +2751,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -2773,13 +2768,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
         <v>165</v>
-      </c>
-      <c r="C44" t="s">
-        <v>166</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -2790,13 +2785,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -2807,13 +2802,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
@@ -2824,13 +2819,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -2855,18 +2850,18 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2875,9 +2870,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2889,9 +2884,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2900,9 +2895,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2911,9 +2906,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -2922,9 +2917,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2936,9 +2931,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2950,9 +2945,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2967,9 +2962,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -2984,9 +2979,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -3001,9 +2996,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -3018,9 +3013,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -3035,9 +3030,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -3052,9 +3047,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -3066,9 +3061,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3083,9 +3078,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -3100,15 +3095,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -3117,9 +3112,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -3134,9 +3129,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -3151,37 +3146,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -3193,423 +3188,423 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
         <v>113</v>
       </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
         <v>113</v>
       </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
         <v>159</v>
       </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>160</v>
       </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
         <v>161</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B41" t="s">
         <v>162</v>
       </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
         <v>161</v>
       </c>
-      <c r="C39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B43" t="s">
         <v>163</v>
       </c>
-      <c r="C40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B41" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" t="s">
         <v>164</v>
       </c>
-      <c r="C42" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" t="s">
         <v>164</v>
       </c>
-      <c r="C43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
         <v>165</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
         <v>166</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" t="s">
-        <v>167</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -3634,15 +3629,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3653,7 +3648,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3667,7 +3662,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -3678,7 +3673,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3689,7 +3684,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -3703,7 +3698,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3720,7 +3715,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3737,7 +3732,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3765,15 +3760,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3784,7 +3779,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3798,7 +3793,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -3809,7 +3804,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3820,7 +3815,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -3834,7 +3829,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3851,7 +3846,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3868,7 +3863,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3893,16 +3888,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3913,7 +3908,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3927,7 +3922,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -3938,7 +3933,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3949,7 +3944,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3966,7 +3961,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3983,7 +3978,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -3997,7 +3992,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -4022,16 +4017,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4042,7 +4037,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4056,7 +4051,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4067,7 +4062,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -4078,7 +4073,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4095,7 +4090,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4112,7 +4107,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4126,7 +4121,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -4151,15 +4146,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4170,7 +4165,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4184,7 +4179,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4195,7 +4190,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -4206,7 +4201,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4223,7 +4218,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4240,7 +4235,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4254,7 +4249,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -4279,16 +4274,16 @@
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4297,9 +4292,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4311,9 +4306,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4322,9 +4317,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -4333,9 +4328,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -4344,9 +4339,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -4358,9 +4353,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -4372,9 +4367,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -4389,9 +4384,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -4406,9 +4401,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -4423,9 +4418,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -4440,9 +4435,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -4457,9 +4452,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -4474,9 +4469,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -4488,9 +4483,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4505,9 +4500,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -4522,15 +4517,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -4539,9 +4534,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -4556,9 +4551,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -4573,37 +4568,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -4615,423 +4610,423 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
         <v>113</v>
       </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
         <v>113</v>
       </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
         <v>159</v>
       </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>160</v>
       </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
         <v>161</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B41" t="s">
         <v>162</v>
       </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
         <v>161</v>
       </c>
-      <c r="C39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B43" t="s">
         <v>163</v>
       </c>
-      <c r="C40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B41" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B44" t="s">
         <v>164</v>
       </c>
-      <c r="C42" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B45" t="s">
         <v>164</v>
       </c>
-      <c r="C43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
         <v>165</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
         <v>166</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" t="s">
-        <v>167</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -5053,15 +5048,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5072,7 +5067,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -5086,7 +5081,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -5097,7 +5092,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -5108,7 +5103,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -5125,7 +5120,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5142,7 +5137,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -5156,7 +5151,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -5181,14 +5176,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5199,7 +5194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5213,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -5235,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -5249,7 +5244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -5266,7 +5261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -5283,7 +5278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5340,15 +5335,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -5362,7 +5357,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -5376,7 +5371,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -5387,7 +5382,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -5398,7 +5393,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -5416,19 +5411,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5439,7 +5434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -5453,7 +5448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -5464,7 +5459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -5475,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -5486,7 +5481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -5500,7 +5495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -5531,7 +5526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -5548,7 +5543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -5565,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -5582,7 +5577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -5599,7 +5594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -5616,7 +5611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -5633,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -5650,7 +5645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -5667,7 +5662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -5684,7 +5679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -5701,7 +5696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -5718,7 +5713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -5735,7 +5730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -5752,7 +5747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -5769,7 +5764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -5786,7 +5781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -5803,7 +5798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -5820,7 +5815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
@@ -5837,7 +5832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
@@ -5854,7 +5849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
@@ -5871,7 +5866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -5885,7 +5880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -5902,7 +5897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
@@ -5919,7 +5914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
@@ -5927,7 +5922,7 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -5936,7 +5931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
@@ -5953,7 +5948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>81</v>
       </c>
@@ -5970,7 +5965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -5987,7 +5982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>85</v>
       </c>
@@ -6004,7 +5999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>87</v>
       </c>
@@ -6012,7 +6007,7 @@
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>466</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -6023,172 +6018,172 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="E38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B40" t="s">
         <v>94</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>95</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
         <v>95</v>
       </c>
-      <c r="C41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
         <v>103</v>
       </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="C45" t="s">
         <v>105</v>
       </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
         <v>107</v>
       </c>
-      <c r="B46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
         <v>109</v>
       </c>
-      <c r="B47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -6200,509 +6195,509 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
         <v>112</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>113</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
         <v>115</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
         <v>117</v>
       </c>
-      <c r="B51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B53" t="s">
         <v>120</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C53" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>465</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" t="s">
-        <v>466</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B56" t="s">
         <v>124</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>125</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
         <v>127</v>
       </c>
-      <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
         <v>129</v>
       </c>
-      <c r="B58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
         <v>131</v>
       </c>
-      <c r="B59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
         <v>133</v>
       </c>
-      <c r="B60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
         <v>135</v>
       </c>
-      <c r="B61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="B62" t="s">
         <v>137</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B64" t="s">
         <v>140</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>141</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="B65" t="s">
         <v>143</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C65" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" t="s">
         <v>159</v>
       </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B68" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
         <v>160</v>
       </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="C69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" t="s">
         <v>161</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
         <v>162</v>
       </c>
-      <c r="D69" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" t="s">
         <v>161</v>
       </c>
-      <c r="C70" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
         <v>163</v>
       </c>
-      <c r="C71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
         <v>164</v>
       </c>
-      <c r="C73" t="s">
-        <v>162</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
         <v>164</v>
       </c>
-      <c r="C74" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s">
         <v>165</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s">
         <v>166</v>
       </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78" t="s">
-        <v>167</v>
-      </c>
       <c r="D78" t="s">
         <v>19</v>
       </c>
@@ -6710,15 +6705,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>12</v>
@@ -6797,21 +6792,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6820,9 +6815,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -6834,9 +6829,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -6845,9 +6840,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -6856,9 +6851,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -6867,9 +6862,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -6881,9 +6876,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -6895,9 +6890,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6912,7 +6907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -6929,9 +6924,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -6946,9 +6941,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -6963,9 +6958,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -6980,9 +6975,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -6997,9 +6992,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
@@ -7014,9 +7009,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -7031,9 +7026,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -7048,15 +7043,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -7065,9 +7060,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -7082,9 +7077,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -7099,9 +7094,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -7116,9 +7111,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -7133,9 +7128,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -7150,15 +7145,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -7167,9 +7162,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -7184,9 +7179,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -7201,9 +7196,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -7218,9 +7213,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -7235,9 +7230,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -7252,9 +7247,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
@@ -7266,9 +7261,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -7283,9 +7278,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -7300,15 +7295,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -7317,9 +7312,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
@@ -7334,9 +7329,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
         <v>79</v>
@@ -7351,9 +7346,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
@@ -7368,15 +7363,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>466</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -7385,173 +7380,173 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
         <v>95</v>
       </c>
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
         <v>95</v>
       </c>
-      <c r="C40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -7563,509 +7558,509 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
         <v>113</v>
       </c>
-      <c r="C48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
         <v>113</v>
       </c>
-      <c r="C49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>465</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>466</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B56" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B62" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B63" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B64" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="B66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
         <v>159</v>
       </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
         <v>160</v>
       </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" t="s">
         <v>161</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" t="s">
         <v>162</v>
       </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
         <v>161</v>
       </c>
-      <c r="C69" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" t="s">
         <v>163</v>
       </c>
-      <c r="C70" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B71" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" t="s">
         <v>164</v>
       </c>
-      <c r="C72" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B75" t="s">
         <v>164</v>
       </c>
-      <c r="C73" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
         <v>165</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s">
         <v>166</v>
       </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B75" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B76" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B77" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
       <c r="D77" t="s">
         <v>19</v>
       </c>
@@ -8073,9 +8068,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>79</v>
@@ -8090,15 +8085,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>385</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>386</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>12</v>
@@ -8121,26 +8116,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="64.109375" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -8151,10 +8146,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -8165,10 +8160,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -8179,10 +8174,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -8199,10 +8194,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -8219,10 +8214,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -8236,7 +8231,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -8269,14 +8264,14 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8287,7 +8282,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8301,7 +8296,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8312,7 +8307,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8323,7 +8318,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8337,7 +8332,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8354,7 +8349,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -8371,7 +8366,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -8396,15 +8391,15 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8415,7 +8410,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8429,7 +8424,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8440,7 +8435,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8451,7 +8446,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8465,7 +8460,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8482,7 +8477,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -8499,7 +8494,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -8524,17 +8519,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8545,7 +8540,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8559,7 +8554,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8570,7 +8565,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8581,7 +8576,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8595,7 +8590,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8612,7 +8607,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -8629,7 +8624,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -8654,16 +8649,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8674,7 +8669,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8688,7 +8683,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8699,7 +8694,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8710,7 +8705,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -8727,7 +8722,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8744,7 +8739,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -8769,15 +8764,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -8791,7 +8786,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8805,7 +8800,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -8816,7 +8811,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -8827,7 +8822,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -8849,15 +8844,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -8871,7 +8866,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8885,7 +8880,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -8896,7 +8891,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -8907,7 +8902,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -8929,15 +8924,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -8951,7 +8946,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8965,7 +8960,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -8976,7 +8971,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -8987,7 +8982,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9009,15 +9004,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9031,7 +9026,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9045,7 +9040,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9056,7 +9051,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9067,7 +9062,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9089,15 +9084,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9111,7 +9106,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9125,7 +9120,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9136,7 +9131,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9147,7 +9142,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9169,16 +9164,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9192,7 +9187,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9206,7 +9201,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9217,7 +9212,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9228,7 +9223,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9250,15 +9245,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9272,7 +9267,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9286,7 +9281,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9297,7 +9292,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9308,7 +9303,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>

--- a/docs/Language Waves/wave3.xlsx
+++ b/docs/Language Waves/wave3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="7752" firstSheet="7" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7755" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="az_az" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="466">
   <si>
     <t>http://www.cisco.com/web/BG/ordering/index.html</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>executive-perspectives</t>
-  </si>
-  <si>
-    <t>buyersguide-var3</t>
   </si>
   <si>
     <t>http://www.cisco.com/web/CA/solutions/sp/index_fr.html</t>
@@ -1766,7 +1763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1801,7 +1798,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1978,7 +1975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1992,15 +1989,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -2014,7 +2011,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2028,7 +2025,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2039,7 +2036,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2050,7 +2047,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2069,20 +2066,20 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C5" sqref="A1:E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2093,7 +2090,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2101,46 +2098,46 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2148,13 +2145,13 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2162,13 +2159,13 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2179,13 +2176,13 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -2196,13 +2193,13 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2213,13 +2210,13 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2230,13 +2227,13 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -2247,13 +2244,13 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -2264,13 +2261,13 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -2284,7 +2281,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2295,13 +2292,13 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2312,92 +2309,92 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -2405,432 +2402,432 @@
       <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
         <v>112</v>
       </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
         <v>124</v>
       </c>
-      <c r="C29" t="s">
-        <v>125</v>
-      </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
         <v>140</v>
       </c>
-      <c r="C33" t="s">
-        <v>141</v>
-      </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
         <v>157</v>
       </c>
-      <c r="C36" t="s">
-        <v>158</v>
-      </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
         <v>160</v>
       </c>
-      <c r="C38" t="s">
-        <v>161</v>
-      </c>
       <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
         <v>164</v>
       </c>
-      <c r="C44" t="s">
-        <v>165</v>
-      </c>
       <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2847,21 +2844,14 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="71.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2870,9 +2860,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2884,9 +2874,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2895,9 +2885,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2906,9 +2896,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -2917,9 +2907,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2931,9 +2921,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2945,9 +2935,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2962,9 +2952,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -2979,9 +2969,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2996,9 +2986,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -3013,9 +3003,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -3030,9 +3020,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -3047,9 +3037,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -3061,9 +3051,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3078,9 +3068,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -3095,15 +3085,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -3112,71 +3102,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -3188,423 +3178,423 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
         <v>112</v>
       </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
         <v>158</v>
       </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>159</v>
       </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
         <v>160</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" t="s">
         <v>161</v>
       </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
         <v>160</v>
       </c>
-      <c r="C39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B43" t="s">
         <v>162</v>
       </c>
-      <c r="C40" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" t="s">
         <v>163</v>
       </c>
-      <c r="C42" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B45" t="s">
         <v>163</v>
       </c>
-      <c r="C43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
         <v>164</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" t="s">
         <v>165</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B45" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" t="s">
-        <v>166</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -3629,15 +3619,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3648,7 +3638,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3662,7 +3652,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -3673,7 +3663,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3684,7 +3674,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -3698,7 +3688,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3715,7 +3705,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3732,7 +3722,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3760,15 +3750,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3779,7 +3769,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3793,7 +3783,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -3804,7 +3794,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3815,7 +3805,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -3829,7 +3819,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3846,7 +3836,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3863,7 +3853,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3888,16 +3878,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3908,7 +3898,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3922,7 +3912,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -3933,7 +3923,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3944,7 +3934,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3961,7 +3951,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3978,7 +3968,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -3992,7 +3982,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -4017,16 +4007,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4037,7 +4027,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4051,7 +4041,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4062,7 +4052,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -4073,7 +4063,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4090,7 +4080,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4107,7 +4097,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4121,7 +4111,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -4146,15 +4136,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4165,7 +4155,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4179,7 +4169,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4190,7 +4180,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -4201,7 +4191,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4218,7 +4208,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4235,7 +4225,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -4249,7 +4239,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -4270,20 +4260,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="67.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4292,9 +4277,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4306,9 +4291,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4317,9 +4302,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -4328,9 +4313,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -4339,9 +4324,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -4353,9 +4338,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -4367,9 +4352,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -4384,9 +4369,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -4401,9 +4386,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -4418,9 +4403,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -4435,9 +4420,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -4452,9 +4437,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -4469,9 +4454,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -4483,9 +4468,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4500,9 +4485,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -4517,15 +4502,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -4534,71 +4519,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -4610,423 +4595,423 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
         <v>112</v>
       </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
         <v>158</v>
       </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>159</v>
       </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
         <v>160</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" t="s">
         <v>161</v>
       </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
         <v>160</v>
       </c>
-      <c r="C39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" t="s">
         <v>162</v>
       </c>
-      <c r="C40" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" t="s">
         <v>163</v>
       </c>
-      <c r="C42" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B45" t="s">
         <v>163</v>
       </c>
-      <c r="C43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
         <v>164</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" t="s">
         <v>165</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B45" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" t="s">
-        <v>166</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -5048,15 +5033,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5067,7 +5052,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -5081,7 +5066,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -5092,7 +5077,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -5103,7 +5088,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -5120,7 +5105,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5137,7 +5122,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -5151,7 +5136,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -5176,14 +5161,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5194,7 +5179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5208,7 +5193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -5230,7 +5215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -5244,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -5261,7 +5246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -5278,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5335,15 +5320,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -5357,7 +5342,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -5371,7 +5356,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -5382,7 +5367,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -5393,7 +5378,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -5415,15 +5400,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5434,7 +5419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -5448,7 +5433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -5459,7 +5444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -5470,7 +5455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -5481,7 +5466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -5495,7 +5480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -5509,7 +5494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -5526,7 +5511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -5543,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -5560,7 +5545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -5577,7 +5562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -5594,7 +5579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -5611,7 +5596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -5628,7 +5613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -5645,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -5662,7 +5647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -5679,7 +5664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -5696,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -5713,7 +5698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -5730,7 +5715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -5747,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -5764,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -5781,7 +5766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -5798,7 +5783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -5815,7 +5800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
@@ -5832,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
@@ -5849,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
@@ -5866,7 +5851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -5880,7 +5865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -5897,7 +5882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
@@ -5914,7 +5899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
@@ -5922,7 +5907,7 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -5931,83 +5916,83 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>79</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
         <v>81</v>
       </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="B35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
         <v>85</v>
       </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -6018,172 +6003,172 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="E38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B40" t="s">
         <v>93</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>94</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
         <v>96</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
         <v>94</v>
       </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
         <v>94</v>
       </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="C45" t="s">
         <v>104</v>
       </c>
-      <c r="B45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
         <v>106</v>
       </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
         <v>108</v>
       </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -6195,509 +6180,509 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
         <v>111</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>112</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
         <v>114</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
         <v>116</v>
       </c>
-      <c r="B51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B53" t="s">
         <v>119</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>464</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" t="s">
-        <v>465</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B56" t="s">
         <v>123</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>124</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
         <v>126</v>
       </c>
-      <c r="B57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
         <v>128</v>
       </c>
-      <c r="B58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
         <v>130</v>
       </c>
-      <c r="B59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
         <v>132</v>
       </c>
-      <c r="B60" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
         <v>134</v>
       </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
+      <c r="B62" t="s">
         <v>136</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C62" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" t="s">
-        <v>115</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B64" t="s">
         <v>139</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>140</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+      <c r="B65" t="s">
         <v>142</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C65" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B67" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
         <v>158</v>
       </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B68" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
         <v>159</v>
       </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
         <v>160</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
         <v>161</v>
       </c>
-      <c r="D69" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" t="s">
         <v>160</v>
       </c>
-      <c r="C70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
         <v>162</v>
       </c>
-      <c r="C71" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
         <v>163</v>
       </c>
-      <c r="C73" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
         <v>163</v>
       </c>
-      <c r="C74" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
         <v>164</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
         <v>165</v>
       </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" t="s">
-        <v>165</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B78" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" t="s">
-        <v>166</v>
-      </c>
       <c r="D78" t="s">
         <v>19</v>
       </c>
@@ -6705,15 +6690,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>12</v>
@@ -6792,21 +6777,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6815,9 +6800,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -6829,9 +6814,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -6840,9 +6825,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -6851,9 +6836,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -6862,9 +6847,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -6876,9 +6861,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -6890,9 +6875,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6907,7 +6892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -6924,9 +6909,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -6941,9 +6926,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -6958,9 +6943,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -6975,9 +6960,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -6992,9 +6977,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
@@ -7009,9 +6994,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -7026,9 +7011,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -7043,9 +7028,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -7060,9 +7045,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -7077,9 +7062,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -7094,9 +7079,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -7111,9 +7096,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -7128,9 +7113,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -7145,9 +7130,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -7162,9 +7147,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -7179,9 +7164,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -7196,9 +7181,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -7213,9 +7198,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -7230,9 +7215,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -7247,9 +7232,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
@@ -7261,9 +7246,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -7278,9 +7263,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -7295,15 +7280,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -7312,241 +7297,241 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>466</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="C37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
         <v>94</v>
       </c>
-      <c r="C39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
         <v>94</v>
       </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -7558,509 +7543,509 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
         <v>112</v>
       </c>
-      <c r="C48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
         <v>112</v>
       </c>
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>464</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" t="s">
-        <v>465</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B56" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B60" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B64" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
         <v>158</v>
       </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B67" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
         <v>159</v>
       </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="C68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" t="s">
         <v>160</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" t="s">
         <v>161</v>
       </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" t="s">
         <v>160</v>
       </c>
-      <c r="C69" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" t="s">
         <v>162</v>
       </c>
-      <c r="C70" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B71" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" t="s">
-        <v>159</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" t="s">
         <v>163</v>
       </c>
-      <c r="C72" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" t="s">
         <v>163</v>
       </c>
-      <c r="C73" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
         <v>164</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
         <v>165</v>
       </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B75" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B76" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" t="s">
-        <v>165</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B77" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" t="s">
-        <v>166</v>
-      </c>
       <c r="D77" t="s">
         <v>19</v>
       </c>
@@ -8068,32 +8053,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>384</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>385</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>12</v>
@@ -8120,22 +8105,22 @@
       <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="2" max="2" width="64.109375" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -8146,10 +8131,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -8160,10 +8145,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -8174,10 +8159,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -8194,10 +8179,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -8214,10 +8199,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -8231,7 +8216,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -8264,14 +8249,14 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8282,7 +8267,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8296,7 +8281,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8307,7 +8292,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8318,7 +8303,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8332,7 +8317,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8349,7 +8334,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -8366,7 +8351,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -8391,15 +8376,15 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8410,7 +8395,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8424,7 +8409,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8435,7 +8420,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8446,7 +8431,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8460,7 +8445,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8477,7 +8462,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -8494,7 +8479,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -8519,17 +8504,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8540,7 +8525,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8554,7 +8539,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8565,7 +8550,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8576,7 +8561,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8590,7 +8575,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8607,7 +8592,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -8624,7 +8609,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -8649,16 +8634,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8669,7 +8654,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8683,7 +8668,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -8694,7 +8679,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8705,7 +8690,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -8722,7 +8707,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8739,7 +8724,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -8764,15 +8749,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -8786,7 +8771,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8800,7 +8785,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -8811,7 +8796,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -8822,7 +8807,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -8844,15 +8829,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -8866,7 +8851,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8880,7 +8865,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -8891,7 +8876,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -8902,7 +8887,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -8924,15 +8909,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -8946,7 +8931,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8960,7 +8945,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -8971,7 +8956,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -8982,7 +8967,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9004,15 +8989,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9026,7 +9011,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9040,7 +9025,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9051,7 +9036,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9062,7 +9047,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9084,15 +9069,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9106,7 +9091,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9120,7 +9105,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9131,7 +9116,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9142,7 +9127,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9164,16 +9149,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9187,7 +9172,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9201,7 +9186,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9212,7 +9197,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9223,7 +9208,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9245,15 +9230,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -9267,7 +9252,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -9281,7 +9266,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -9292,7 +9277,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9303,7 +9288,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>

--- a/docs/Language Waves/wave3.xlsx
+++ b/docs/Language Waves/wave3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7755" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="7752" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="az_az" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="467">
   <si>
     <t>http://www.cisco.com/web/BG/ordering/index.html</t>
   </si>
@@ -1442,6 +1442,9 @@
   </si>
   <si>
     <t>solutions-listing-var9</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/solutions/strategy/manufacturing/index_fr.html</t>
   </si>
 </sst>
 </file>
@@ -1975,7 +1978,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1989,10 +1992,10 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,16 +2068,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2844,12 +2847,15 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E47"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>272</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>273</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>441</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>274</v>
       </c>
@@ -2907,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>275</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>276</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>277</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>278</v>
       </c>
@@ -2969,7 +2975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>279</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>280</v>
       </c>
@@ -3003,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>281</v>
       </c>
@@ -3020,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>282</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>283</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>284</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>285</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>286</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>287</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>288</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>289</v>
       </c>
@@ -3150,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>290</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>291</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>292</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>293</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>294</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>295</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>296</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>297</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>298</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>299</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>300</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>301</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>302</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>303</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>304</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>305</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>306</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>307</v>
       </c>
@@ -3450,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>308</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>309</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>310</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>311</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>312</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>313</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>314</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>315</v>
       </c>
@@ -3586,7 +3592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>316</v>
       </c>
@@ -3619,10 +3625,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3750,10 +3756,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,11 +3884,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4007,11 +4013,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4136,10 +4142,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4260,13 +4266,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>431</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>432</v>
       </c>
@@ -4291,7 +4300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>433</v>
       </c>
@@ -4302,7 +4311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>434</v>
       </c>
@@ -4313,7 +4322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>435</v>
       </c>
@@ -4324,7 +4333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>436</v>
       </c>
@@ -4338,7 +4347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>437</v>
       </c>
@@ -4352,7 +4361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>438</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>439</v>
       </c>
@@ -4386,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>440</v>
       </c>
@@ -4403,7 +4412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>317</v>
       </c>
@@ -4420,7 +4429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>318</v>
       </c>
@@ -4437,7 +4446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>319</v>
       </c>
@@ -4454,7 +4463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>320</v>
       </c>
@@ -4468,7 +4477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>321</v>
       </c>
@@ -4485,7 +4494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>322</v>
       </c>
@@ -4502,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>323</v>
       </c>
@@ -4519,7 +4528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>324</v>
       </c>
@@ -4536,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>325</v>
       </c>
@@ -4553,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>326</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>327</v>
       </c>
@@ -4581,7 +4590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>328</v>
       </c>
@@ -4595,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>329</v>
       </c>
@@ -4612,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>330</v>
       </c>
@@ -4629,7 +4638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>331</v>
       </c>
@@ -4646,7 +4655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>332</v>
       </c>
@@ -4663,7 +4672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>333</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>334</v>
       </c>
@@ -4697,7 +4706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>335</v>
       </c>
@@ -4714,7 +4723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>336</v>
       </c>
@@ -4731,7 +4740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>337</v>
       </c>
@@ -4748,7 +4757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>338</v>
       </c>
@@ -4765,7 +4774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>339</v>
       </c>
@@ -4782,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>340</v>
       </c>
@@ -4799,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>341</v>
       </c>
@@ -4816,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>342</v>
       </c>
@@ -4833,7 +4842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>343</v>
       </c>
@@ -4850,7 +4859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>344</v>
       </c>
@@ -4867,7 +4876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>345</v>
       </c>
@@ -4884,7 +4893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>346</v>
       </c>
@@ -4901,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>347</v>
       </c>
@@ -4918,7 +4927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>348</v>
       </c>
@@ -4935,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>349</v>
       </c>
@@ -4952,7 +4961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>350</v>
       </c>
@@ -4969,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>351</v>
       </c>
@@ -4986,7 +4995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>352</v>
       </c>
@@ -5003,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>353</v>
       </c>
@@ -5033,10 +5042,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,14 +5170,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5179,7 +5188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5193,7 +5202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -5215,7 +5224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -5229,7 +5238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -5246,7 +5255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -5263,7 +5272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5320,10 +5329,10 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5396,19 +5405,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5419,7 +5428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -5433,7 +5442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -5444,7 +5453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -5455,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -5466,7 +5475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -5480,7 +5489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -5494,7 +5503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -5511,9 +5520,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -5528,7 +5537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -5562,7 +5571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -5579,7 +5588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -5596,7 +5605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -5613,7 +5622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -5630,7 +5639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -5647,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -5664,7 +5673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -5681,7 +5690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -5698,7 +5707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -5732,7 +5741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -5749,7 +5758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -5766,7 +5775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -5783,7 +5792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -5800,7 +5809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
@@ -5817,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
@@ -5834,7 +5843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
@@ -5851,7 +5860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -5865,7 +5874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -5882,7 +5891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
@@ -5899,7 +5908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
@@ -5916,7 +5925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -5933,7 +5942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>80</v>
       </c>
@@ -5950,7 +5959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -5967,7 +5976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -5984,7 +5993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>86</v>
       </c>
@@ -6001,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>87</v>
       </c>
@@ -6015,7 +6024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>90</v>
       </c>
@@ -6030,7 +6039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
@@ -6047,7 +6056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
@@ -6064,7 +6073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>97</v>
       </c>
@@ -6081,7 +6090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>99</v>
       </c>
@@ -6098,7 +6107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>101</v>
       </c>
@@ -6115,7 +6124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>103</v>
       </c>
@@ -6132,7 +6141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
@@ -6149,7 +6158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>107</v>
       </c>
@@ -6166,7 +6175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>109</v>
       </c>
@@ -6180,7 +6189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>110</v>
       </c>
@@ -6197,7 +6206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>113</v>
       </c>
@@ -6214,7 +6223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
@@ -6231,7 +6240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>117</v>
       </c>
@@ -6248,7 +6257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>118</v>
       </c>
@@ -6265,7 +6274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>120</v>
       </c>
@@ -6282,7 +6291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -6299,7 +6308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
@@ -6316,7 +6325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>125</v>
       </c>
@@ -6333,7 +6342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>127</v>
       </c>
@@ -6350,7 +6359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>129</v>
       </c>
@@ -6367,7 +6376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>131</v>
       </c>
@@ -6384,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>133</v>
       </c>
@@ -6401,7 +6410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -6418,7 +6427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>137</v>
       </c>
@@ -6435,7 +6444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>138</v>
       </c>
@@ -6452,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>141</v>
       </c>
@@ -6469,7 +6478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>143</v>
       </c>
@@ -6486,7 +6495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>144</v>
       </c>
@@ -6503,7 +6512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>145</v>
       </c>
@@ -6520,7 +6529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>146</v>
       </c>
@@ -6537,7 +6546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>147</v>
       </c>
@@ -6554,7 +6563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>148</v>
       </c>
@@ -6571,7 +6580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>149</v>
       </c>
@@ -6588,7 +6597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>150</v>
       </c>
@@ -6605,7 +6614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>151</v>
       </c>
@@ -6622,7 +6631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>152</v>
       </c>
@@ -6639,7 +6648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>153</v>
       </c>
@@ -6656,7 +6665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>154</v>
       </c>
@@ -6673,7 +6682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>155</v>
       </c>
@@ -6690,7 +6699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>385</v>
       </c>
@@ -6768,6 +6777,7 @@
     <hyperlink ref="A63" r:id="rId57"/>
     <hyperlink ref="A64" r:id="rId58"/>
     <hyperlink ref="A65" r:id="rId59"/>
+    <hyperlink ref="A9" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6777,19 +6787,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -6800,7 +6810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
@@ -6814,7 +6824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>169</v>
       </c>
@@ -6825,7 +6835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>170</v>
       </c>
@@ -6836,7 +6846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>171</v>
       </c>
@@ -6847,7 +6857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>172</v>
       </c>
@@ -6861,7 +6871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
@@ -6875,7 +6885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>174</v>
       </c>
@@ -6892,7 +6902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -6909,7 +6919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -6926,7 +6936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>176</v>
       </c>
@@ -6943,7 +6953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>177</v>
       </c>
@@ -6960,7 +6970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>178</v>
       </c>
@@ -6977,7 +6987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>179</v>
       </c>
@@ -6994,7 +7004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>180</v>
       </c>
@@ -7011,7 +7021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>181</v>
       </c>
@@ -7028,7 +7038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>182</v>
       </c>
@@ -7045,7 +7055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>183</v>
       </c>
@@ -7062,7 +7072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>184</v>
       </c>
@@ -7079,7 +7089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>185</v>
       </c>
@@ -7096,7 +7106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>186</v>
       </c>
@@ -7113,7 +7123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>187</v>
       </c>
@@ -7130,7 +7140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>188</v>
       </c>
@@ -7147,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>189</v>
       </c>
@@ -7164,7 +7174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>190</v>
       </c>
@@ -7181,7 +7191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>191</v>
       </c>
@@ -7198,7 +7208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>192</v>
       </c>
@@ -7215,7 +7225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>193</v>
       </c>
@@ -7232,7 +7242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>194</v>
       </c>
@@ -7246,7 +7256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>195</v>
       </c>
@@ -7263,7 +7273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>196</v>
       </c>
@@ -7280,7 +7290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>197</v>
       </c>
@@ -7297,7 +7307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>198</v>
       </c>
@@ -7314,7 +7324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>199</v>
       </c>
@@ -7331,7 +7341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>200</v>
       </c>
@@ -7348,7 +7358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>201</v>
       </c>
@@ -7365,7 +7375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>202</v>
       </c>
@@ -7379,7 +7389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>203</v>
       </c>
@@ -7393,7 +7403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>204</v>
       </c>
@@ -7410,7 +7420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>205</v>
       </c>
@@ -7427,7 +7437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>206</v>
       </c>
@@ -7444,7 +7454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>207</v>
       </c>
@@ -7461,7 +7471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>208</v>
       </c>
@@ -7478,7 +7488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>209</v>
       </c>
@@ -7495,7 +7505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>210</v>
       </c>
@@ -7512,7 +7522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>211</v>
       </c>
@@ -7529,7 +7539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>212</v>
       </c>
@@ -7543,7 +7553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>213</v>
       </c>
@@ -7560,7 +7570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>214</v>
       </c>
@@ -7577,7 +7587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>215</v>
       </c>
@@ -7594,7 +7604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>216</v>
       </c>
@@ -7611,7 +7621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>217</v>
       </c>
@@ -7628,7 +7638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>218</v>
       </c>
@@ -7645,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>219</v>
       </c>
@@ -7662,7 +7672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>220</v>
       </c>
@@ -7679,7 +7689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
@@ -7696,7 +7706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>222</v>
       </c>
@@ -7713,7 +7723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>223</v>
       </c>
@@ -7730,7 +7740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>224</v>
       </c>
@@ -7747,7 +7757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>225</v>
       </c>
@@ -7764,7 +7774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>226</v>
       </c>
@@ -7781,7 +7791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>227</v>
       </c>
@@ -7798,7 +7808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>228</v>
       </c>
@@ -7815,7 +7825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>229</v>
       </c>
@@ -7832,7 +7842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>230</v>
       </c>
@@ -7849,7 +7859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>231</v>
       </c>
@@ -7866,7 +7876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>232</v>
       </c>
@@ -7883,7 +7893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>233</v>
       </c>
@@ -7900,7 +7910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>234</v>
       </c>
@@ -7917,7 +7927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>235</v>
       </c>
@@ -7934,7 +7944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>236</v>
       </c>
@@ -7951,7 +7961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>237</v>
       </c>
@@ -7968,7 +7978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>238</v>
       </c>
@@ -7985,7 +7995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>239</v>
       </c>
@@ -8002,7 +8012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>240</v>
       </c>
@@ -8019,7 +8029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>241</v>
       </c>
@@ -8036,7 +8046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>242</v>
       </c>
@@ -8053,7 +8063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>382</v>
       </c>
@@ -8070,7 +8080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>383</v>
       </c>
@@ -8105,14 +8115,14 @@
       <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="64.109375" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8249,9 +8259,9 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8376,10 +8386,10 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8504,12 +8514,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8634,11 +8644,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8749,10 +8759,10 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8829,10 +8839,10 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8909,10 +8919,10 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8989,10 +8999,10 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9069,10 +9079,10 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9149,11 +9159,11 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9230,10 +9240,10 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
